--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3546867.28465719</v>
+        <v>3650893.336517697</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7656477.740462084</v>
+        <v>7620318.028180529</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>23.89865235309172</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>125.8409794830816</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>45.576115875516</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>141.7614152959625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>211.7412012042042</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>136.0870494265628</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>115.4153860097294</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>95.44336989065498</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>363.3655192809605</v>
+        <v>21.68055307435731</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>149.9901675479395</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>87.6215495555529</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>46.13809394730832</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>81.07546534818412</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2053,19 +2055,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>31.39650288673274</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2141,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>92.87435055577284</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>24.83266606353211</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.17988875728673</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,13 +2557,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2621,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>43.7384661432547</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>50.17139158339562</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.962173606588</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261747</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308914</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652571</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808186</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352484</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972043</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>199.298406692554</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265259</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>253.6024764086827</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652651</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>133.8410052537953</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>73.78331078915251</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808293</v>
+        <v>51.89407438975464</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>139.483705355054</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>185.0663491738889</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1213.898819086399</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,16 +4330,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4355,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3301.465768727261</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3047.935292001097</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2716.872404657526</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2364.103749387412</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1990.637991126332</v>
+        <v>1944.863285692679</v>
       </c>
       <c r="Y2" t="n">
-        <v>1600.49865915052</v>
+        <v>1554.723953716867</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3182.412472825371</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="C4" t="n">
-        <v>3013.476289897464</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D4" t="n">
-        <v>2863.359650485128</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E4" t="n">
-        <v>2715.446556902735</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>2568.556609404825</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>2568.556609404825</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>2568.556609404825</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497872</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="V4" t="n">
-        <v>3325.605821609171</v>
+        <v>785.0200678933741</v>
       </c>
       <c r="W4" t="n">
-        <v>3325.605821609171</v>
+        <v>495.6028978564135</v>
       </c>
       <c r="X4" t="n">
-        <v>3325.605821609171</v>
+        <v>495.6028978564135</v>
       </c>
       <c r="Y4" t="n">
-        <v>3182.412472825371</v>
+        <v>495.6028978564135</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1385.781921542235</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4598,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2824.323010322666</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2141.344278546769</v>
       </c>
     </row>
     <row r="6">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U7" t="n">
-        <v>417.6040489720652</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V7" t="n">
-        <v>162.9195607661784</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="W7" t="n">
-        <v>162.9195607661784</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="X7" t="n">
-        <v>162.9195607661784</v>
+        <v>501.2115707469939</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>280.4189916034637</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2045.657199403897</v>
+        <v>1998.10447029351</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4820,10 +4822,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993394</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649823</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379709</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2435.796531379709</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y8" t="n">
-        <v>2045.657199403897</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.0173361775769</v>
+        <v>155.0187321448631</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>155.0187321448631</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145375</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145375</v>
+        <v>699.1203903877106</v>
       </c>
       <c r="V10" t="n">
-        <v>507.4345062145375</v>
+        <v>444.4359021818237</v>
       </c>
       <c r="W10" t="n">
-        <v>218.0173361775769</v>
+        <v>155.0187321448631</v>
       </c>
       <c r="X10" t="n">
-        <v>218.0173361775769</v>
+        <v>155.0187321448631</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.0173361775769</v>
+        <v>155.0187321448631</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5032,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5042,22 +5044,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612594</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5244,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>680.0291294438176</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>257.7977758426685</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5478,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5503,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,7 +5515,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5528,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
         <v>929.7309773356195</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5938,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5971,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M23" t="n">
         <v>2206.55866301478</v>
@@ -6008,16 +6010,16 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.04164637206</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2824.769373306004</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C25" t="n">
-        <v>2799.685872231729</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D25" t="n">
-        <v>2799.685872231729</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.772778649336</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151425</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866305</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3227.210417279774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3006.417838136244</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6308,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>594.8179559048574</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>446.9048623224643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2396.284910263699</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319338</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656833</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150018</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345474</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1487.074331943035</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1197.657161906075</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>969.6676110080573</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168601</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>950.7540666811321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>781.8178837532254</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>631.7012443408898</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>631.7012443408898</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>484.8112968429797</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578598</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384021</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855606</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1871.240688199804</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1616.556199993917</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1360.392082409389</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1132.402531511372</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1132.402531511372</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6937,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384027</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7260,19 +7262,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531933</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656824</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7393,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,19 +7496,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2394.544826620912</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2211.689992275817</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1922.614765620015</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1667.930277414128</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1378.513107377167</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1150.52355647915</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7733,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>1920.063992790046</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2343.687142285114</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1790.525374274257</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1501.108204237296</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>99.28295407562292</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>59.21924749803976</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>194.3131525023044</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>55.74112246243952</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>142.4141550350957</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>16.20385512672606</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>52.83923663127396</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>32.92052192790817</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>152.3434691354488</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>212.7396875474385</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>14.48117232036704</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>27.76311574357385</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>67.07129414993906</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>670862.1270867101</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>670862.1270867101</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>670862.1270867101</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>670862.1270867101</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>670862.1270867101</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="N2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="J2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710697</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710694</v>
-      </c>
       <c r="O2" t="n">
-        <v>779989.6813710693</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.309672370553016e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551177</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,31 +26432,31 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186748</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>22817.55530496086</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496083</v>
+        <v>14826.69604186752</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496083</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496083</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496083</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219695</v>
+        <v>-750285.7490219699</v>
       </c>
       <c r="C6" t="n">
+        <v>578458.9967056232</v>
+      </c>
+      <c r="D6" t="n">
         <v>578458.996705623</v>
       </c>
-      <c r="D6" t="n">
-        <v>578458.9967056232</v>
-      </c>
       <c r="E6" t="n">
-        <v>325427.5820323762</v>
+        <v>325427.582032376</v>
       </c>
       <c r="F6" t="n">
-        <v>650840.0438397317</v>
+        <v>650840.0438397315</v>
       </c>
       <c r="G6" t="n">
+        <v>650840.0438397314</v>
+      </c>
+      <c r="H6" t="n">
+        <v>650840.0438397316</v>
+      </c>
+      <c r="I6" t="n">
+        <v>650840.0438397314</v>
+      </c>
+      <c r="J6" t="n">
+        <v>433308.841442454</v>
+      </c>
+      <c r="K6" t="n">
+        <v>650840.0438397314</v>
+      </c>
+      <c r="L6" t="n">
+        <v>650840.0438397313</v>
+      </c>
+      <c r="M6" t="n">
+        <v>565785.0159042196</v>
+      </c>
+      <c r="N6" t="n">
+        <v>650840.0438397316</v>
+      </c>
+      <c r="O6" t="n">
         <v>650840.0438397315</v>
       </c>
-      <c r="H6" t="n">
-        <v>650840.0438397315</v>
-      </c>
-      <c r="I6" t="n">
-        <v>650840.0438397315</v>
-      </c>
-      <c r="J6" t="n">
-        <v>433308.8414424541</v>
-      </c>
-      <c r="K6" t="n">
-        <v>634580.2922185615</v>
-      </c>
-      <c r="L6" t="n">
-        <v>654008.0102121935</v>
-      </c>
-      <c r="M6" t="n">
-        <v>568952.9822766813</v>
-      </c>
-      <c r="N6" t="n">
-        <v>654008.0102121932</v>
-      </c>
-      <c r="O6" t="n">
-        <v>654008.010212193</v>
-      </c>
       <c r="P6" t="n">
-        <v>650840.0438397314</v>
+        <v>650840.0438397313</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>180.0193177865284</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>243.8901211953874</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>206.561527448312</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.82323805613231</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>142.9418404164788</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,13 +27672,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>213.1539192908502</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>64.41659417220791</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>123.1412834614398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>1.90737249004701</v>
+        <v>343.5923386966502</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>17.25665355068836</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>60.99392346265945</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,10 +32083,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>579.5299594447137</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32546,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>616.375287159485</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>332.9841464938405</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32950,7 +32952,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33026,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,16 +33736,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33980,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>409.0029787211721</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P42" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34451,10 +34453,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>351.4708102230528</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>440.9755796648395</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>473.7790427150405</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>199.0097390795103</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549932</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986648</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919382</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37628,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>266.8689447991538</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P42" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>71.39556506237828</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>211.4890361370313</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3650893.336517697</v>
+        <v>3646880.726503703</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>195.5565936082878</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>125.8409794830816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>58.28185552386282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>45.576115875516</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>211.7412012042042</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>37.84125266804983</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.4153860097294</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>158.8381429633325</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>21.68055307435731</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>7.823231064583228</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>87.6215495555529</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>81.46084344268499</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>46.13809394730832</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>197.7845572547695</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>81.07546534818412</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673012</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>110.0177171766847</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>31.39650288673274</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>92.87435055577284</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428081</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174112</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>99.17988875728673</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>50.17139158339562</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
-        <v>199.298406692554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>253.6024764086827</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>133.8410052537953</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>73.78331078915251</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>51.89407438975464</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>139.483705355054</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1168.124113652745</v>
+        <v>1517.887535471214</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X2" t="n">
-        <v>1944.863285692679</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y2" t="n">
-        <v>1554.723953716867</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>313.9544330261738</v>
+        <v>739.2385409879445</v>
       </c>
       <c r="C4" t="n">
-        <v>313.9544330261738</v>
+        <v>570.3023580600376</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>420.1857186477018</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>272.2726250653087</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>125.3826775673984</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757135</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>785.0200678933741</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>495.6028978564135</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>495.6028978564135</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y4" t="n">
-        <v>495.6028978564135</v>
+        <v>920.8870058181842</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482647</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1385.781921542235</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4582,37 +4582,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546769</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4664,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>760.4444371683537</v>
       </c>
       <c r="T7" t="n">
-        <v>729.2011216450112</v>
+        <v>760.4444371683537</v>
       </c>
       <c r="U7" t="n">
-        <v>729.2011216450112</v>
+        <v>760.4444371683537</v>
       </c>
       <c r="V7" t="n">
-        <v>729.2011216450112</v>
+        <v>760.4444371683537</v>
       </c>
       <c r="W7" t="n">
-        <v>729.2011216450112</v>
+        <v>760.4444371683537</v>
       </c>
       <c r="X7" t="n">
-        <v>501.2115707469939</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="Y7" t="n">
-        <v>280.4189916034637</v>
+        <v>532.4548862703364</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1998.10447029351</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4819,37 +4819,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3001.435151919898</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2670.372264576327</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2317.603609306213</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.243802269322</v>
+        <v>2317.603609306213</v>
       </c>
       <c r="Y8" t="n">
-        <v>1998.10447029351</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.0187321448631</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C10" t="n">
-        <v>155.0187321448631</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4992,22 +4992,22 @@
         <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>444.4359021818237</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W10" t="n">
-        <v>155.0187321448631</v>
+        <v>376.7853475753371</v>
       </c>
       <c r="X10" t="n">
-        <v>155.0187321448631</v>
+        <v>148.7957966773197</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.0187321448631</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192576</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273892</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C13" t="n">
-        <v>747.3584617859342</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>597.2418223735984</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>449.3287287912053</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359454</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614369</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>783.5579673960132</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5269,13 +5269,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5287,25 +5287,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5345,40 +5345,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803935</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516139</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>424.9938751277886</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>424.9938751277886</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>257.7977758426685</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280589</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192713</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5980,52 +5980,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6056,40 +6056,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>417.7969033733013</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>417.7969033733013</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2396.284910263699</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2213.430075918604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2213.430075918604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1924.354849262801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1669.670361056914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1380.253191019954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.0191461778176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1487.074331943035</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1197.657161906075</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>969.6676110080573</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>969.6676110080573</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168601</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811321</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532254</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408898</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408898</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429797</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578598</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855606</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199804</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993917</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1360.392082409389</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1132.402531511372</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511372</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1842.268145910715</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.583657704828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.17693676985</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356195</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2394.544826620912</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2211.689992275817</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2211.689992275817</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1922.614765620015</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1667.930277414128</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1378.513107377167</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1150.52355647915</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>929.7309773356195</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7730,22 +7730,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>99.28295407562292</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>20.80009609732534</v>
       </c>
     </row>
     <row r="14">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>59.21924749803976</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194299</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>35.40333084624653</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>194.3131525023044</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>55.74112246243952</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194308</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>66.34424953498211</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>16.20385512672606</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
-        <v>52.83923663127396</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>32.92052192790817</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>152.3434691354488</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>14.48117232036704</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>27.76311574357385</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710683</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
       <c r="N2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055056</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.309672370553016e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551177</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186744</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186748</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186747</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186747</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186744</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186752</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219699</v>
+        <v>-750285.7490219697</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056232</v>
+        <v>578458.9967056226</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.996705623</v>
+        <v>578458.9967056231</v>
       </c>
       <c r="E6" t="n">
-        <v>325427.582032376</v>
+        <v>325080.2027780195</v>
       </c>
       <c r="F6" t="n">
-        <v>650840.0438397315</v>
+        <v>650492.6645853744</v>
       </c>
       <c r="G6" t="n">
-        <v>650840.0438397314</v>
+        <v>650492.6645853745</v>
       </c>
       <c r="H6" t="n">
-        <v>650840.0438397316</v>
+        <v>650492.6645853745</v>
       </c>
       <c r="I6" t="n">
-        <v>650840.0438397314</v>
+        <v>650492.6645853741</v>
       </c>
       <c r="J6" t="n">
-        <v>433308.841442454</v>
+        <v>432961.4621880968</v>
       </c>
       <c r="K6" t="n">
-        <v>650840.0438397314</v>
+        <v>650492.6645853744</v>
       </c>
       <c r="L6" t="n">
-        <v>650840.0438397313</v>
+        <v>650492.6645853744</v>
       </c>
       <c r="M6" t="n">
-        <v>565785.0159042196</v>
+        <v>565437.6366498627</v>
       </c>
       <c r="N6" t="n">
-        <v>650840.0438397316</v>
+        <v>650492.6645853743</v>
       </c>
       <c r="O6" t="n">
-        <v>650840.0438397315</v>
+        <v>650492.6645853743</v>
       </c>
       <c r="P6" t="n">
-        <v>650840.0438397313</v>
+        <v>650492.6645853742</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,16 +26746,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>169.7162981627197</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>243.8901211953874</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351654</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>206.561527448312</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,7 +27621,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>142.9418404164788</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>331.8898480104192</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.41659417220791</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>30.93088236810939</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>343.5923386966502</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>243.1719408943187</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>60.99392346265945</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28064,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>137.1238099094098</v>
       </c>
     </row>
     <row r="11">
@@ -28089,13 +28089,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.478997154632013e-12</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.330580173293129e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.436047097567692e-14</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>209.9499448422525</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067244</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O21" t="n">
-        <v>616.375287159485</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>213.3000196296242</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32952,7 +32952,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
         <v>965.6463440175675</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,28 +33259,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,13 +33508,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,19 +33982,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,7 +34216,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>628.2482078836097</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34389,10 +34389,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34450,25 +34450,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>351.4708102230528</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>71.39556506237828</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236318484</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O21" t="n">
-        <v>473.7790427150405</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>79.325612215294</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,13 +37156,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,19 +37630,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>485.6519634391653</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38037,10 +38037,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.4890361370313</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3646880.726503703</v>
+        <v>3648641.256806489</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>195.5565936082878</v>
+        <v>245.8822293545893</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>58.28185552386282</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>37.84125266804983</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>129.471426936783</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>53.4937345463699</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>158.8381429633325</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>177.2979137777578</v>
       </c>
       <c r="U8" t="n">
-        <v>7.823231064583228</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>20.95866062610926</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.46084344268499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.7845572547695</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>32.47207866589218</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673012</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>110.0177171766847</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444115</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428081</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174112</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>192.8396132741332</v>
       </c>
     </row>
     <row r="26">
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>223.1546446143035</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.006892987834117</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>40.15381658332819</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1517.887535471214</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4366,16 +4366,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796416</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535336</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1904.487375535336</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,37 +4424,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879445</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600376</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477018</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E4" t="n">
-        <v>272.2726250653087</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F4" t="n">
-        <v>125.3826775673984</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,7 +4579,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939507</v>
@@ -4588,7 +4588,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4606,13 +4606,13 @@
         <v>3215.315153136265</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.54649786615</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.4548862703364</v>
+        <v>289.4823746594539</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>120.5461917315469</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300937</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>760.4444371683537</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>760.4444371683537</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>760.4444371683537</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>760.4444371683537</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>760.4444371683537</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X7" t="n">
-        <v>532.4548862703364</v>
+        <v>471.1308394896936</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.4548862703364</v>
+        <v>471.1308394896936</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="U8" t="n">
-        <v>3001.435151919898</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.372264576327</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2317.603609306213</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2317.603609306213</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4877,10 +4877,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4995,19 +4995,19 @@
         <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>631.7841389438281</v>
       </c>
       <c r="V10" t="n">
-        <v>666.2025176122977</v>
+        <v>377.0996507379413</v>
       </c>
       <c r="W10" t="n">
-        <v>376.7853475753371</v>
+        <v>87.68248070098065</v>
       </c>
       <c r="X10" t="n">
-        <v>148.7957966773197</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168595</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192576</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273892</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803934</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516138</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793923</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580259</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235163</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258104</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602302</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396415</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359454</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614369</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>783.5579673960132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5269,43 +5269,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5345,31 +5345,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273893</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516139</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188007</v>
+        <v>984.5772922261132</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>815.6411092982063</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>665.5244698858705</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>517.6113763034774</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533435</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925705</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490404</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168588</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400703</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400703</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400703</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.50206557031</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362663</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192713</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273895</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.155464951614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121634</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121634</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121634</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121634</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270434</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,52 +5980,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852888</v>
@@ -6056,16 +6056,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6423,13 +6423,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6615,10 +6615,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,13 +6645,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>134.3760737382024</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7505,13 +7505,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2299.457522348532</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.80009609732534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194299</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>35.40333084624653</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194308</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>25.74504007796162</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>142.4141550350971</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>100.1408962628957</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>659745.9909472882</v>
+        <v>659745.9909472881</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>659745.9909472881</v>
+        <v>659745.9909472882</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710683</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="I2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="K2" t="n">
         <v>766789.2697055058</v>
@@ -26352,10 +26352,10 @@
         <v>766789.2697055057</v>
       </c>
       <c r="O2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055056</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.815770605185866e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186748</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186747</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186747</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186744</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26524,46 +26524,46 @@
         <v>-750285.7490219697</v>
       </c>
       <c r="C6" t="n">
-        <v>578458.9967056226</v>
+        <v>578458.996705623</v>
       </c>
       <c r="D6" t="n">
-        <v>578458.9967056231</v>
+        <v>578458.9967056232</v>
       </c>
       <c r="E6" t="n">
-        <v>325080.2027780195</v>
+        <v>325392.8441069402</v>
       </c>
       <c r="F6" t="n">
-        <v>650492.6645853744</v>
+        <v>650805.3059142957</v>
       </c>
       <c r="G6" t="n">
-        <v>650492.6645853745</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="H6" t="n">
-        <v>650492.6645853745</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="I6" t="n">
-        <v>650492.6645853741</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="J6" t="n">
-        <v>432961.4621880968</v>
+        <v>433274.1035170181</v>
       </c>
       <c r="K6" t="n">
-        <v>650492.6645853744</v>
+        <v>650805.3059142958</v>
       </c>
       <c r="L6" t="n">
-        <v>650492.6645853744</v>
+        <v>650805.3059142957</v>
       </c>
       <c r="M6" t="n">
-        <v>565437.6366498627</v>
+        <v>565750.2779787839</v>
       </c>
       <c r="N6" t="n">
-        <v>650492.6645853743</v>
+        <v>650805.3059142956</v>
       </c>
       <c r="O6" t="n">
-        <v>650492.6645853743</v>
+        <v>650805.3059142958</v>
       </c>
       <c r="P6" t="n">
-        <v>650492.6645853742</v>
+        <v>650805.3059142956</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,16 +26746,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26962,16 +26962,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7162981627197</v>
+        <v>119.3906624164183</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>107.7439527351654</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>331.8898480104192</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>256.7665117192705</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>95.12173847184246</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>30.93088236810939</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>26.62005636186237</v>
       </c>
       <c r="U8" t="n">
-        <v>243.1719408943187</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>204.7509947629279</v>
       </c>
       <c r="Y10" t="n">
-        <v>137.1238099094098</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,13 +28089,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28104,10 +28104,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.478997154632013e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>6.436047097567692e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29100,7 +29100,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29328,13 +29328,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31618,13 +31618,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P9" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558032</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,43 +31910,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067244</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558027</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113588</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318484</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113583</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
